--- a/biology/Zoologie/Dixella/Dixella.xlsx
+++ b/biology/Zoologie/Dixella/Dixella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dixella est un genre d'insectes diptères nématocères de la famille des Dixidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (20 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (20 octobre 2021) :
 Dixella aestivalis
 Dixella amphibia
 Dixella attica
@@ -560,9 +574,11 @@
           <t>Liste complète d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 février 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 février 2023) :
 Dixella aegyptiaca Wagner, Freidberg &amp; Ortal, 1992
 Dixella aestivalis (Meigen, 1818)
 Dixella alexanderi Peters, 1970
@@ -679,10 +695,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dixella Dyar &amp; Shannon, 1924[2].
-Dixella a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dixella Dyar &amp; Shannon, 1924.
+Dixella a pour synonymes :
 Dixina Enderlein, 1936
 Paradixa Tonnoir, 1924
 Pardixa</t>
